--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/20/seed1/result_data_RandomForest.xlsx
@@ -499,10 +499,10 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.807000000000003</v>
+        <v>5.041100000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.2858</v>
+        <v>-14.23989999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.79610000000002</v>
+        <v>-14.6331</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -533,10 +533,10 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.005400000000009</v>
+        <v>8.929600000000011</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.4591</v>
+        <v>-11.28570000000001</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>5.245099999999999</v>
+        <v>5.212599999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.895200000000002</v>
+        <v>4.885399999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.7571</v>
+        <v>-11.2326</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.823100000000005</v>
+        <v>8.643800000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.92730000000001</v>
+        <v>-11.8591</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.509599999999997</v>
+        <v>5.622599999999995</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.197100000000001</v>
+        <v>5.184599999999998</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.2448</v>
+        <v>-11.10849999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
